--- a/biology/Botanique/Écozone_afrotropicale/Écozone_afrotropicale.xlsx
+++ b/biology/Botanique/Écozone_afrotropicale/Écozone_afrotropicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écozone afrotropicale est une des huit écozones ou régions biogéographiques terrestres.
-Elle correspond essentiellement à l'Afrique subsaharienne et inclut Madagascar ainsi que le sud de l'Arabie[1],[2]. Pour certains, il comprend encore le sud de l'Iran et le sud-ouest du Pakistan, ainsi que les îles de l'ouest de l'Océan Indien[3].
+Elle correspond essentiellement à l'Afrique subsaharienne et inclut Madagascar ainsi que le sud de l'Arabie,. Pour certains, il comprend encore le sud de l'Iran et le sud-ouest du Pakistan, ainsi que les îles de l'ouest de l'Océan Indien.
 Madagascar et les îles avoisinantes forment une sous-région distincte de l'écozone, avec de nombreuses espèces endémiques, telles que les lémuriens. Madagascar et les Seychelles sont d'anciens morceaux du supercontinent Gondwana qui se sont séparés de l'Afrique il y a environ 120 millions d'années. D'autres îles de l'océan Indien, telles que les Comores ou les Mascareignes sont d'origine volcaniques et de formation plus récente.
 La région du Cap, dans la partie sud de l'Afrique, correspond à un climat méditerranéen. Elle héberge de nombreuses espèces endémiques et des familles telles que les Proteaceae, également présentes dans l'écozone australasienne.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Écorégion 1 de type : Forêts décidues humides tropicales et subtropicales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts des Comores (Comores) 
 Forêts côtières de la Cross, de la Sanaga et de Bioko (Cameroun, Guinée équatoriale, Nigeria)
@@ -554,7 +568,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,7 +586,9 @@
           <t>Écorégion 2 de type : Forêts décidues sèches tropicales et subtropicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts décidues sèches de Madagascar (Madagascar)
 Forêts sèches du Cap-Vert (Cap-Vert)
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Écorégion 7 de type : Prairies, savanes et brousses tropicales et subtropicales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Broussailles et prairies de l'ìle de l'Ascension (Ascension) 
 Broussailles et prairies de Sainte-Hélène (Sainte-Hélène) 
@@ -643,7 +661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,7 +679,9 @@
           <t>Écorégion 8 de type : Prairies, savanes et brousses tempérées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Broussailles et prairies de Tristan da Cunha et de Gough (Île Tristan da Cunha, Ile Gough)
 Forêts claires d'altitude d'Al Hajar et Al Gharbi (Oman) 
@@ -676,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,7 +714,9 @@
           <t>Écorégion 9 de type : Prairies et savanes inondables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies inondables sahariennes (Soudan, Soudan du Sud) 
 Prairies inondables zambéziennes (Angola, Botswana, République démocratique du Congo, Malawi, Mozambique, Tanzanie, Zambie) 
@@ -714,7 +736,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,7 +754,9 @@
           <t>Écorégion 10 de type :Prairies et brousses d'altitude</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bush et fourrés du Maputaland-Pondoland (Mozambique, Afrique du Sud, Eswatini) 
 Fourrés éricoïdes de Madagascar (Madagascar) 
@@ -759,7 +783,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -777,7 +801,9 @@
           <t>Écorégion 12 de type : Forêts, bois et maquis méditerranéens</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Fourrés d'Albany (Afrique du Sud) 
 Fynbos et renosterveld de basses terres (Afrique du Sud) 
@@ -792,7 +818,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -810,7 +836,9 @@
           <t>Écorégion 13 de type : Déserts et brousses xériques</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Broussailles xériques de l'île d'Aldabra (Seychelles)
 Broussailles xériques de l'île de Socotra (Yémen) 
@@ -846,7 +874,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>%C3%89cozone_afrotropicale</t>
+          <t>Écozone_afrotropicale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -864,7 +892,9 @@
           <t>Écorégion 14 de type : Mangrove</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Mangroves d'Afrique centrale (Angola, Cameroun, République démocratique du Congo, Guinée équatoriale, Gabon, Ghana, Nigeria) 
 Mangroves d'Afrique australe (Mozambique, Afrique du Sud)
